--- a/FrmPIE/0temple/templesforASN.xlsx
+++ b/FrmPIE/0temple/templesforASN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="528" windowWidth="15036" windowHeight="8412"/>
+    <workbookView xWindow="135" yWindow="525" windowWidth="15030" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="437">
   <si>
     <t>SHORT INV</t>
   </si>
@@ -1313,18 +1313,41 @@
   </si>
   <si>
     <t>DESD33A681KN2A</t>
+  </si>
+  <si>
+    <t>Q4291150121004353102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10748768/SBU3/MG8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20VC9-5114-000C1F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBB33F331KP3AA19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1354,7 +1377,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1362,7 +1385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1646,13 +1669,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1945,26 +1974,26 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="A11">
+        <v>24533313</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>436</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>1500</v>
+        <v>281700</v>
       </c>
       <c r="H11">
         <v>3.6600000000000001E-2</v>
@@ -1975,628 +2004,628 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1">
-        <v>13500</v>
+        <v>1500</v>
       </c>
       <c r="H12">
-        <v>1.23E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>166.05</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1">
-        <v>1500</v>
+        <v>13500</v>
       </c>
       <c r="H13">
-        <v>2.76E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>41.4</v>
+        <v>166.05</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1">
-        <v>13500</v>
+        <v>1500</v>
       </c>
       <c r="H14">
-        <v>1.23E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="I14" s="2">
-        <v>166.05</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1">
-        <v>1500</v>
+        <v>13500</v>
       </c>
       <c r="H15">
-        <v>2.76E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>41.4</v>
+        <v>166.05</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="1">
-        <v>16500</v>
+        <v>1500</v>
       </c>
       <c r="H16">
-        <v>1.23E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="I16" s="2">
-        <v>202.95</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="1">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="H17">
-        <v>1.2500000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>112.5</v>
+        <v>202.95</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="1">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="H18">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I18" s="2">
-        <v>339.3</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1">
-        <v>6000</v>
+        <v>19500</v>
       </c>
       <c r="H19">
-        <v>1.2500000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>75</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="H20">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I20" s="2">
-        <v>208.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="1">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="H21">
-        <v>1.2500000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I21" s="2">
-        <v>56.25</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="1">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="H22">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I22" s="2">
-        <v>104.4</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="1">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="H23">
-        <v>1.2500000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I23" s="2">
-        <v>18.75</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="1">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="H24">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I24" s="2">
-        <v>130.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="H25">
-        <v>2.58E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I25" s="2">
-        <v>116.1</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="1">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="H26">
-        <v>1.7399999999999999E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="I26" s="2">
-        <v>182.7</v>
+        <v>116.1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="1">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="H27">
-        <v>2.58E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I27" s="2">
-        <v>77.400000000000006</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="1">
-        <v>31500</v>
+        <v>3000</v>
       </c>
       <c r="H28">
-        <v>1.7399999999999999E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="I28" s="2">
-        <v>548.1</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="1">
-        <v>3000</v>
+        <v>31500</v>
       </c>
       <c r="H29">
-        <v>1.23E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I29" s="2">
-        <v>36.9</v>
+        <v>548.1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="1">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="H30">
-        <v>1.5299999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I30" s="2">
-        <v>229.5</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="1">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="H31">
-        <v>1.23E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="I31" s="2">
-        <v>55.35</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="1">
-        <v>16500</v>
+        <v>4500</v>
       </c>
       <c r="H32">
-        <v>2.5999999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>429</v>
+        <v>55.35</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -2605,346 +2634,346 @@
         <v>16500</v>
       </c>
       <c r="H33">
-        <v>1.23E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I33" s="2">
-        <v>202.95</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="1">
-        <v>3000</v>
+        <v>16500</v>
       </c>
       <c r="H34">
-        <v>2.7300000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I34" s="2">
-        <v>81.900000000000006</v>
+        <v>202.95</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="1">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="H35">
-        <v>1.23E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I35" s="2">
-        <v>184.5</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="1">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="H36">
-        <v>2.7300000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>163.80000000000001</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="1">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="H37">
-        <v>1.23E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>55.35</v>
+        <v>163.80000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="1">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="H38">
-        <v>2.7300000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I38" s="2">
-        <v>163.80000000000001</v>
+        <v>55.35</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="1">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="H39">
-        <v>1.23E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I39" s="2">
-        <v>202.95</v>
+        <v>163.80000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="1">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="H40">
-        <v>2.7300000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="I40" s="2">
-        <v>737.1</v>
+        <v>202.95</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="1">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="H41">
-        <v>1.7399999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I41" s="2">
-        <v>287.10000000000002</v>
+        <v>737.1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="1">
-        <v>60000</v>
+        <v>16500</v>
       </c>
       <c r="H42">
-        <v>1.44E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I42" s="2">
-        <v>864</v>
+        <v>287.10000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="1">
-        <v>1500</v>
+        <v>60000</v>
       </c>
       <c r="H43">
-        <v>1.7399999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="I43" s="2">
-        <v>26.1</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="1">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="H44">
-        <v>1.67E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I44" s="2">
-        <v>200.4</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -2953,114 +2982,114 @@
         <v>12000</v>
       </c>
       <c r="H45">
-        <v>1.7399999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I45" s="2">
-        <v>208.8</v>
+        <v>200.4</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="1">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="H46">
-        <v>1.67E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I46" s="2">
-        <v>175.35</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="H47">
-        <v>1.7399999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I47" s="2">
-        <v>261</v>
+        <v>175.35</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="1">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="H48">
-        <v>1.2E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I48" s="2">
-        <v>18</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -3069,2898 +3098,2898 @@
         <v>1500</v>
       </c>
       <c r="H49">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I49" s="2">
-        <v>26.1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="1">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="H50">
-        <v>1.2E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I50" s="2">
-        <v>72</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="H51">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I51" s="2">
-        <v>208.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="1">
-        <v>82500</v>
+        <v>12000</v>
       </c>
       <c r="H52">
-        <v>1.2E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I52" s="2">
-        <v>990</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="1">
-        <v>10500</v>
+        <v>82500</v>
       </c>
       <c r="H53">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I53" s="2">
-        <v>182.7</v>
+        <v>990</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="1">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="H54">
-        <v>1.2E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I54" s="2">
-        <v>72</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H55">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I55" s="2">
         <v>72</v>
-      </c>
-      <c r="D55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="1">
-        <v>7500</v>
-      </c>
-      <c r="H55">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="I55" s="2">
-        <v>130.5</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="1">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="H56">
-        <v>1.2E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I56" s="2">
-        <v>270</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="1">
-        <v>6000</v>
+        <v>22500</v>
       </c>
       <c r="H57">
-        <v>1.7399999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I57" s="2">
-        <v>104.4</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="1">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="H58">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I58" s="2">
-        <v>389.25</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="1">
-        <v>1500</v>
+        <v>22500</v>
       </c>
       <c r="H59">
-        <v>1.7399999999999999E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I59" s="2">
-        <v>26.1</v>
+        <v>389.25</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="1">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H60">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I60" s="2">
-        <v>51.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="1">
-        <v>28500</v>
+        <v>3000</v>
       </c>
       <c r="H61">
-        <v>1.7399999999999999E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I61" s="2">
-        <v>495.9</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="1">
-        <v>3000</v>
+        <v>28500</v>
       </c>
       <c r="H62">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I62" s="2">
-        <v>51.9</v>
+        <v>495.9</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="1">
-        <v>19500</v>
+        <v>3000</v>
       </c>
       <c r="H63">
-        <v>1.7399999999999999E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I63" s="2">
-        <v>339.3</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="1">
-        <v>900</v>
+        <v>19500</v>
       </c>
       <c r="H64">
-        <v>2.8510000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I64" s="2">
-        <v>25.658999999999999</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="1">
-        <v>25500</v>
+        <v>900</v>
       </c>
       <c r="H65">
-        <v>1.7399999999999999E-2</v>
+        <v>2.8510000000000001E-2</v>
       </c>
       <c r="I65" s="2">
-        <v>443.7</v>
+        <v>25.658999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="1">
-        <v>3600</v>
+        <v>25500</v>
       </c>
       <c r="H66">
-        <v>2.29E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I66" s="2">
-        <v>82.44</v>
+        <v>443.7</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="1">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="H67">
-        <v>1.7399999999999999E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="I67" s="2">
-        <v>26.1</v>
+        <v>82.44</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="1">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="H68">
-        <v>2.29E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="I68" s="2">
-        <v>20.61</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="1">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="H69">
-        <v>1.8100000000000002E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="I69" s="2">
-        <v>27.15</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="1">
-        <v>78300</v>
+        <v>1500</v>
       </c>
       <c r="H70">
-        <v>1.11E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="I70" s="2">
-        <v>869.13</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="1">
-        <v>13500</v>
+        <v>78300</v>
       </c>
       <c r="H71">
-        <v>1.5299999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I71" s="2">
-        <v>206.55</v>
+        <v>869.13</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="1">
-        <v>108000</v>
+        <v>13500</v>
       </c>
       <c r="H72">
-        <v>1.11E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="I72" s="2">
-        <v>1198.8</v>
+        <v>206.55</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="1">
-        <v>4500</v>
+        <v>108000</v>
       </c>
       <c r="H73">
-        <v>1.5299999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I73" s="2">
-        <v>68.849999999999994</v>
+        <v>1198.8</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="1">
-        <v>22500</v>
+        <v>4500</v>
       </c>
       <c r="H74">
-        <v>1.11E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="I74" s="2">
-        <v>249.75</v>
+        <v>68.849999999999994</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="1">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="H75">
-        <v>1.5299999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I75" s="2">
-        <v>183.6</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="E76" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="1">
-        <v>28800</v>
+        <v>12000</v>
       </c>
       <c r="H76">
-        <v>1.11E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="I76" s="2">
-        <v>319.68</v>
+        <v>183.6</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="1">
-        <v>1500</v>
+        <v>28800</v>
       </c>
       <c r="H77">
-        <v>1.5299999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I77" s="2">
-        <v>22.95</v>
+        <v>319.68</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="1">
-        <v>36000</v>
+        <v>1500</v>
       </c>
       <c r="H78">
-        <v>1.11E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="I78" s="2">
-        <v>399.6</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="1">
-        <v>1500</v>
+        <v>36000</v>
       </c>
       <c r="H79">
-        <v>1.8169999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I79" s="2">
-        <v>27.254999999999999</v>
+        <v>399.6</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="1">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H80">
-        <v>1.11E-2</v>
+        <v>1.8169999999999999E-2</v>
       </c>
       <c r="I80" s="2">
-        <v>19.98</v>
+        <v>27.254999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="1">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="H81">
-        <v>1.8169999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I81" s="2">
-        <v>81.765000000000001</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E82" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="1">
-        <v>2700</v>
+        <v>4500</v>
       </c>
       <c r="H82">
-        <v>2.7650000000000001E-2</v>
+        <v>1.8169999999999999E-2</v>
       </c>
       <c r="I82" s="2">
-        <v>74.655000000000001</v>
+        <v>81.765000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="1">
-        <v>16500</v>
+        <v>2700</v>
       </c>
       <c r="H83">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="I83" s="2">
-        <v>429</v>
+        <v>74.655000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="1">
-        <v>900</v>
+        <v>16500</v>
       </c>
       <c r="H84">
-        <v>2.7650000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I84" s="2">
-        <v>24.885000000000002</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="1">
-        <v>18000</v>
+        <v>900</v>
       </c>
       <c r="H85">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="I85" s="2">
-        <v>468</v>
+        <v>24.885000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="1">
-        <v>2700</v>
+        <v>18000</v>
       </c>
       <c r="H86">
-        <v>2.7650000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I86" s="2">
-        <v>74.655000000000001</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
       </c>
       <c r="G87" s="1">
-        <v>15000</v>
+        <v>2700</v>
       </c>
       <c r="H87">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="I87" s="2">
-        <v>390</v>
+        <v>74.655000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="E88" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="1">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="H88">
-        <v>2.7650000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I88" s="2">
-        <v>24.885000000000002</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="1">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="H89">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="I89" s="2">
-        <v>117</v>
+        <v>24.885000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="1">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="H90">
-        <v>2.7650000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I90" s="2">
-        <v>49.77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
       </c>
       <c r="G91" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H91">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="I91" s="2">
-        <v>39</v>
+        <v>49.77</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
       </c>
       <c r="G92" s="1">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="H92">
-        <v>2.58E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I92" s="2">
-        <v>69.66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="1">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="H93">
-        <v>2.7300000000000001E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="I93" s="2">
-        <v>40.950000000000003</v>
+        <v>69.66</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="1">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H94">
-        <v>2.58E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I94" s="2">
-        <v>46.44</v>
+        <v>40.950000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="1">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="H95">
-        <v>2.7300000000000001E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="I95" s="2">
-        <v>163.80000000000001</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="1">
-        <v>2700</v>
+        <v>6000</v>
       </c>
       <c r="H96">
-        <v>2.58E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I96" s="2">
-        <v>69.66</v>
+        <v>163.80000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="1">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="H97">
-        <v>2.7300000000000001E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="I97" s="2">
-        <v>122.85</v>
+        <v>69.66</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="1">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="H98">
-        <v>2.58E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I98" s="2">
-        <v>46.44</v>
+        <v>122.85</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="1">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="H99">
-        <v>2.7300000000000001E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="I99" s="2">
-        <v>81.900000000000006</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="H100">
-        <v>2.3699999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I100" s="2">
-        <v>189.6</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
       </c>
       <c r="G101" s="1">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="H101">
-        <v>2.7300000000000001E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="I101" s="2">
-        <v>40.950000000000003</v>
+        <v>189.6</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D102" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="1">
-        <v>16500</v>
+        <v>1500</v>
       </c>
       <c r="H102">
-        <v>2.3699999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I102" s="2">
-        <v>391.05</v>
+        <v>40.950000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
       </c>
       <c r="G103" s="1">
-        <v>3000</v>
+        <v>16500</v>
       </c>
       <c r="H103">
-        <v>2.7300000000000001E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="I103" s="2">
-        <v>81.900000000000006</v>
+        <v>391.05</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
       </c>
       <c r="G104" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H104">
-        <v>2.3699999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I104" s="2">
-        <v>118.5</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C105" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="E105" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
       </c>
       <c r="G105" s="1">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="H105">
-        <v>2.7300000000000001E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="I105" s="2">
-        <v>40.950000000000003</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="E106" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="G106" s="1">
-        <v>16500</v>
+        <v>1500</v>
       </c>
       <c r="H106">
-        <v>1.7500000000000002E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I106" s="2">
-        <v>288.75</v>
+        <v>40.950000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="E107" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="1">
-        <v>25500</v>
+        <v>16500</v>
       </c>
       <c r="H107">
-        <v>2.7300000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="I107" s="2">
-        <v>696.15</v>
+        <v>288.75</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="1">
-        <v>33000</v>
+        <v>25500</v>
       </c>
       <c r="H108">
-        <v>1.7500000000000002E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I108" s="2">
-        <v>577.5</v>
+        <v>696.15</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
       </c>
       <c r="G109" s="1">
-        <v>19500</v>
+        <v>33000</v>
       </c>
       <c r="H109">
-        <v>2.7300000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="I109" s="2">
-        <v>532.35</v>
+        <v>577.5</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="1">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="H110">
-        <v>4.7399999999999998E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I110" s="2">
-        <v>260.7</v>
+        <v>532.35</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="1">
-        <v>24000</v>
+        <v>5500</v>
       </c>
       <c r="H111">
-        <v>2.7300000000000001E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="I111" s="2">
-        <v>655.20000000000005</v>
+        <v>260.7</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D112" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="E112" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="1">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="H112">
-        <v>4.7399999999999998E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I112" s="2">
-        <v>355.5</v>
+        <v>655.20000000000005</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="1">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="H113">
-        <v>2.7300000000000001E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="I113" s="2">
-        <v>40.950000000000003</v>
+        <v>355.5</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
       </c>
       <c r="G114" s="1">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="H114">
-        <v>3.6799999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="I114" s="2">
-        <v>147.19999999999999</v>
+        <v>40.950000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D115" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="E115" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
       </c>
       <c r="G115" s="1">
-        <v>58500</v>
+        <v>4000</v>
       </c>
       <c r="H115">
-        <v>1.44E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="I115" s="2">
-        <v>842.4</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="E116" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="1">
-        <v>6000</v>
+        <v>58500</v>
       </c>
       <c r="H116">
-        <v>2.1299999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="I116" s="2">
-        <v>127.8</v>
+        <v>842.4</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C117" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="E117" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
       </c>
       <c r="G117" s="1">
-        <v>52500</v>
+        <v>6000</v>
       </c>
       <c r="H117">
-        <v>1.44E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I117" s="2">
-        <v>756</v>
+        <v>127.8</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C118" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="D118" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
       <c r="G118" s="1">
-        <v>250</v>
+        <v>52500</v>
       </c>
       <c r="H118">
-        <v>2.1299999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="I118" s="2">
-        <v>5.3250000000000002</v>
+        <v>756</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="E119" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
       </c>
       <c r="G119" s="1">
-        <v>4500</v>
+        <v>250</v>
       </c>
       <c r="H119">
-        <v>1.44E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I119" s="2">
-        <v>64.8</v>
+        <v>5.3250000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="E120" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="1">
-        <v>1250</v>
+        <v>4500</v>
       </c>
       <c r="H120">
-        <v>2.1299999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="I120" s="2">
-        <v>26.625</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="E121" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="1">
-        <v>12000</v>
+        <v>1250</v>
       </c>
       <c r="H121">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I121" s="2">
-        <v>200.4</v>
+        <v>26.625</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="E122" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
       </c>
       <c r="G122" s="1">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="H122">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I122" s="2">
-        <v>42.6</v>
+        <v>200.4</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B123" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D123" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="E123" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
       <c r="G123" s="1">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="H123">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I123" s="2">
-        <v>175.35</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
       </c>
       <c r="G124" s="1">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="H124">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I124" s="2">
-        <v>85.2</v>
+        <v>175.35</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D125" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="E125" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
       </c>
       <c r="G125" s="1">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="H125">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I125" s="2">
-        <v>150.30000000000001</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
       </c>
       <c r="G126" s="1">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="H126">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I126" s="2">
-        <v>63.9</v>
+        <v>150.30000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="E127" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
       </c>
       <c r="G127" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H127">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I127" s="2">
-        <v>100.2</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
       </c>
       <c r="G128" s="1">
-        <v>97500</v>
+        <v>6000</v>
       </c>
       <c r="H128">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I128" s="2">
-        <v>2076.75</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B129" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="E129" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
       </c>
       <c r="G129" s="1">
-        <v>10500</v>
+        <v>97500</v>
       </c>
       <c r="H129">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I129" s="2">
-        <v>175.35</v>
+        <v>2076.75</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
       </c>
       <c r="G130" s="1">
-        <v>2500</v>
+        <v>10500</v>
       </c>
       <c r="H130">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I130" s="2">
-        <v>53.25</v>
+        <v>175.35</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="E131" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
       <c r="G131" s="1">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="H131">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I131" s="2">
-        <v>300.60000000000002</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="E132" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="1">
-        <v>98250</v>
+        <v>18000</v>
       </c>
       <c r="H132">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I132" s="2">
-        <v>2092.7249999999999</v>
+        <v>300.60000000000002</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D133" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="E133" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
       </c>
       <c r="G133" s="1">
-        <v>3000</v>
+        <v>98250</v>
       </c>
       <c r="H133">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I133" s="2">
-        <v>50.1</v>
+        <v>2092.7249999999999</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C134" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D134" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
       </c>
       <c r="G134" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H134">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I134" s="2">
-        <v>106.5</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C135" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D135" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="E135" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
       </c>
       <c r="G135" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H135">
-        <v>1.67E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I135" s="2">
-        <v>50.1</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="D136" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
       <c r="G136" s="1">
-        <v>59000</v>
+        <v>3000</v>
       </c>
       <c r="H136">
-        <v>2.1299999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="I136" s="2">
-        <v>1256.7</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C137" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="D137" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
       </c>
       <c r="G137" s="1">
-        <v>9500</v>
+        <v>59000</v>
       </c>
       <c r="H137">
-        <v>4.48E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I137" s="2">
-        <v>425.6</v>
+        <v>1256.7</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="B138" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C138" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="D138" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
       </c>
       <c r="G138" s="1">
-        <v>1000</v>
+        <v>9500</v>
       </c>
       <c r="H138">
-        <v>2.1299999999999999E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="I138" s="2">
-        <v>21.3</v>
+        <v>425.6</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
         <v>145</v>
       </c>
       <c r="D139" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E139" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
       </c>
       <c r="G139" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H139">
-        <v>4.48E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I139" s="2">
-        <v>22.4</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="B140" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="D140" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
       </c>
       <c r="G140" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H140">
-        <v>2.1299999999999999E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="I140" s="2">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="B141" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
         <v>205</v>
       </c>
       <c r="D141" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
       </c>
       <c r="G141" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H141">
-        <v>4.48E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I141" s="2">
-        <v>89.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C142" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="D142" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E142" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="1">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="H142">
-        <v>3.5900000000000001E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="I142" s="2">
-        <v>32.31</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D143" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E143" t="s">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
       </c>
       <c r="G143" s="1">
-        <v>90000</v>
+        <v>900</v>
       </c>
       <c r="H143">
-        <v>1.2E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="I143" s="2">
-        <v>1080</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E144" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
       </c>
       <c r="G144" s="1">
-        <v>4800</v>
+        <v>90000</v>
       </c>
       <c r="H144">
-        <v>3.9100000000000003E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I144" s="2">
-        <v>187.68</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C145" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="D145" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E145" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
       </c>
       <c r="G145" s="1">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="H145">
-        <v>1.7299999999999999E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I145" s="2">
-        <v>51.9</v>
+        <v>187.68</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E146" t="s">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
       </c>
       <c r="G146" s="1">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="H146">
-        <v>3.9100000000000003E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I146" s="2">
-        <v>46.92</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="B147" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="E147" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
       </c>
       <c r="G147" s="1">
-        <v>21000</v>
+        <v>1200</v>
       </c>
       <c r="H147">
-        <v>1.7299999999999999E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I147" s="2">
-        <v>363.3</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="E148" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
       </c>
       <c r="G148" s="1">
-        <v>4500</v>
+        <v>21000</v>
       </c>
       <c r="H148">
-        <v>3.8379999999999997E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I148" s="2">
-        <v>172.71</v>
+        <v>363.3</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C149" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -5969,601 +5998,601 @@
         <v>4500</v>
       </c>
       <c r="H149">
-        <v>1.7299999999999999E-2</v>
+        <v>3.8379999999999997E-2</v>
       </c>
       <c r="I149" s="2">
-        <v>77.849999999999994</v>
+        <v>172.71</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D150" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E150" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
       </c>
       <c r="G150" s="1">
-        <v>16500</v>
+        <v>4500</v>
       </c>
       <c r="H150">
-        <v>1.2500000000000001E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I150" s="2">
-        <v>206.25</v>
+        <v>77.849999999999994</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="E151" t="s">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
       </c>
       <c r="G151" s="1">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="H151">
-        <v>1.7299999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I151" s="2">
-        <v>311.39999999999998</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C152" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="E152" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
       </c>
       <c r="G152" s="1">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="H152">
-        <v>1.2500000000000001E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I152" s="2">
-        <v>56.25</v>
+        <v>311.39999999999998</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C153" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D153" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="E153" t="s">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
       </c>
       <c r="G153" s="1">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="H153">
-        <v>1.7299999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I153" s="2">
-        <v>181.65</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C154" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D154" t="s">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="E154" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
       </c>
       <c r="G154" s="1">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="H154">
-        <v>1.2500000000000001E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="I154" s="2">
-        <v>93.75</v>
+        <v>181.65</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>320</v>
+        <v>84</v>
       </c>
       <c r="B155" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="D155" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="E155" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
       </c>
       <c r="G155" s="1">
-        <v>1800</v>
+        <v>7500</v>
       </c>
       <c r="H155">
-        <v>2.8510000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I155" s="2">
-        <v>51.317999999999998</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>320</v>
       </c>
       <c r="B156" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="D156" t="s">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="E156" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
       </c>
       <c r="G156" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H156">
-        <v>2.2800000000000001E-2</v>
+        <v>2.8510000000000001E-2</v>
       </c>
       <c r="I156" s="2">
-        <v>34.200000000000003</v>
+        <v>51.317999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>325</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C157" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="E157" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
       </c>
       <c r="G157" s="1">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="H157">
-        <v>2.8510000000000001E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="I157" s="2">
-        <v>25.658999999999999</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="B158" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C158" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="D158" t="s">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="E158" t="s">
-        <v>330</v>
+        <v>164</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
       </c>
       <c r="G158" s="1">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="H158">
-        <v>5.8799999999999998E-2</v>
+        <v>2.8510000000000001E-2</v>
       </c>
       <c r="I158" s="2">
-        <v>117.6</v>
+        <v>25.658999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B159" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D159" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="E159" t="s">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
       </c>
       <c r="G159" s="1">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="H159">
-        <v>2.29E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="I159" s="2">
-        <v>41.22</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="E160" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
       </c>
       <c r="G160" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H160">
-        <v>6.4299999999999996E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="I160" s="2">
-        <v>96.45</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C161" t="s">
-        <v>337</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="E161" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
       </c>
       <c r="G161" s="1">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="H161">
-        <v>2.29E-2</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="I161" s="2">
-        <v>20.61</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="B162" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="D162" t="s">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="E162" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
       </c>
       <c r="G162" s="1">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="H162">
-        <v>4.6199999999999998E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="I162" s="2">
-        <v>138.6</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C163" t="s">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E163" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="F163" t="s">
         <v>14</v>
       </c>
       <c r="G163" s="1">
-        <v>261900</v>
+        <v>3000</v>
       </c>
       <c r="H163">
-        <v>1.11E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="I163" s="2">
-        <v>2907.09</v>
+        <v>138.6</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C164" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="D164" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E164" t="s">
-        <v>345</v>
+        <v>177</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
       </c>
       <c r="G164" s="1">
-        <v>2500</v>
+        <v>261900</v>
       </c>
       <c r="H164">
-        <v>7.2300000000000003E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I164" s="2">
-        <v>180.75</v>
+        <v>2907.09</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B165" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D165" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E165" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
       </c>
       <c r="G165" s="1">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="H165">
-        <v>1.11E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="I165" s="2">
-        <v>59.94</v>
+        <v>180.75</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C166" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E166" t="s">
-        <v>345</v>
+        <v>177</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
       </c>
       <c r="G166" s="1">
-        <v>3500</v>
+        <v>5400</v>
       </c>
       <c r="H166">
-        <v>7.2300000000000003E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I166" s="2">
-        <v>253.05</v>
+        <v>59.94</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="B167" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C167" t="s">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="D167" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E167" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
       </c>
       <c r="G167" s="1">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="H167">
-        <v>1.11E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="I167" s="2">
-        <v>19.98</v>
+        <v>253.05</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B168" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C168" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D168" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E168" t="s">
-        <v>345</v>
+        <v>177</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
       </c>
       <c r="G168" s="1">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="H168">
-        <v>7.2300000000000003E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I168" s="2">
-        <v>433.8</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>118</v>
+        <v>352</v>
       </c>
       <c r="B169" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="D169" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E169" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
       </c>
       <c r="G169" s="1">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="H169">
-        <v>1.11E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="I169" s="2">
-        <v>49.95</v>
+        <v>433.8</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B170" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D170" t="s">
         <v>347</v>
@@ -6575,24 +6604,24 @@
         <v>14</v>
       </c>
       <c r="G170" s="1">
-        <v>5400</v>
+        <v>4500</v>
       </c>
       <c r="H170">
         <v>1.11E-2</v>
       </c>
       <c r="I170" s="2">
-        <v>59.94</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B171" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C171" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D171" t="s">
         <v>347</v>
@@ -6604,27 +6633,27 @@
         <v>14</v>
       </c>
       <c r="G171" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="H171">
         <v>1.11E-2</v>
       </c>
       <c r="I171" s="2">
-        <v>19.98</v>
+        <v>59.94</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D172" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="E172" t="s">
         <v>177</v>
@@ -6633,53 +6662,53 @@
         <v>14</v>
       </c>
       <c r="G172" s="1">
-        <v>15300</v>
+        <v>1800</v>
       </c>
       <c r="H172">
         <v>1.11E-2</v>
       </c>
       <c r="I172" s="2">
-        <v>169.83</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="B173" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C173" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E173" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
       </c>
       <c r="G173" s="1">
-        <v>1800</v>
+        <v>15300</v>
       </c>
       <c r="H173">
-        <v>2.7650000000000001E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="I173" s="2">
-        <v>49.77</v>
+        <v>169.83</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D174" t="s">
         <v>194</v>
@@ -6702,13 +6731,13 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B175" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
         <v>194</v>
@@ -6731,31 +6760,31 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B176" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C176" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D176" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E176" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
       </c>
       <c r="G176" s="1">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="H176">
-        <v>2.58E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
       <c r="I176" s="2">
-        <v>69.66</v>
+        <v>49.77</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6763,7 +6792,7 @@
         <v>64</v>
       </c>
       <c r="B177" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C177" t="s">
         <v>66</v>
@@ -6778,24 +6807,24 @@
         <v>14</v>
       </c>
       <c r="G177" s="1">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="H177">
         <v>2.58E-2</v>
       </c>
       <c r="I177" s="2">
-        <v>23.22</v>
+        <v>69.66</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B178" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D178" t="s">
         <v>214</v>
@@ -6807,82 +6836,82 @@
         <v>14</v>
       </c>
       <c r="G178" s="1">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="H178">
         <v>2.58E-2</v>
       </c>
       <c r="I178" s="2">
-        <v>46.44</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C179" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D179" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E179" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
       </c>
       <c r="G179" s="1">
-        <v>18750</v>
+        <v>1800</v>
       </c>
       <c r="H179">
-        <v>2.3699999999999999E-2</v>
+        <v>2.58E-2</v>
       </c>
       <c r="I179" s="2">
-        <v>444.375</v>
+        <v>46.44</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B180" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D180" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E180" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
       </c>
       <c r="G180" s="1">
-        <v>6000</v>
+        <v>18750</v>
       </c>
       <c r="H180">
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="I180" s="2">
-        <v>142.19999999999999</v>
+        <v>444.375</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D181" t="s">
         <v>229</v>
@@ -6894,24 +6923,24 @@
         <v>14</v>
       </c>
       <c r="G181" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="H181">
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="I181" s="2">
-        <v>118.5</v>
+        <v>142.19999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B182" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C182" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
         <v>229</v>
@@ -6923,24 +6952,24 @@
         <v>14</v>
       </c>
       <c r="G182" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H182">
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="I182" s="2">
-        <v>23.7</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C183" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D183" t="s">
         <v>229</v>
@@ -6963,42 +6992,42 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D184" t="s">
-        <v>371</v>
+        <v>229</v>
       </c>
       <c r="E184" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
       </c>
       <c r="G184" s="1">
-        <v>141000</v>
+        <v>1000</v>
       </c>
       <c r="H184">
-        <v>1.7500000000000002E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="I184" s="2">
-        <v>2467.5</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D185" t="s">
         <v>371</v>
@@ -7010,24 +7039,24 @@
         <v>14</v>
       </c>
       <c r="G185" s="1">
-        <v>259500</v>
+        <v>141000</v>
       </c>
       <c r="H185">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="I185" s="2">
-        <v>4541.25</v>
+        <v>2467.5</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B186" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C186" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D186" t="s">
         <v>371</v>
@@ -7039,13 +7068,13 @@
         <v>14</v>
       </c>
       <c r="G186" s="1">
-        <v>169500</v>
+        <v>259500</v>
       </c>
       <c r="H186">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="I186" s="2">
-        <v>2966.25</v>
+        <v>4541.25</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7053,7 +7082,7 @@
         <v>52</v>
       </c>
       <c r="B187" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C187" t="s">
         <v>54</v>
@@ -7068,24 +7097,24 @@
         <v>14</v>
       </c>
       <c r="G187" s="1">
-        <v>25500</v>
+        <v>169500</v>
       </c>
       <c r="H187">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="I187" s="2">
-        <v>446.25</v>
+        <v>2966.25</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B188" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C188" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D188" t="s">
         <v>371</v>
@@ -7097,53 +7126,53 @@
         <v>14</v>
       </c>
       <c r="G188" s="1">
-        <v>31500</v>
+        <v>25500</v>
       </c>
       <c r="H188">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="I188" s="2">
-        <v>551.25</v>
+        <v>446.25</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C189" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D189" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="E189" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="1">
-        <v>11500</v>
+        <v>31500</v>
       </c>
       <c r="H189">
-        <v>4.7399999999999998E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="I189" s="2">
-        <v>545.1</v>
+        <v>551.25</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C190" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D190" t="s">
         <v>239</v>
@@ -7155,24 +7184,24 @@
         <v>14</v>
       </c>
       <c r="G190" s="1">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="H190">
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="I190" s="2">
-        <v>497.7</v>
+        <v>545.1</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C191" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="D191" t="s">
         <v>239</v>
@@ -7184,30 +7213,30 @@
         <v>14</v>
       </c>
       <c r="G191" s="1">
-        <v>1000</v>
+        <v>10500</v>
       </c>
       <c r="H191">
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="I191" s="2">
-        <v>47.4</v>
+        <v>497.7</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>148</v>
       </c>
       <c r="D192" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E192" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
@@ -7216,21 +7245,21 @@
         <v>1000</v>
       </c>
       <c r="H192">
-        <v>3.6799999999999999E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="I192" s="2">
-        <v>36.799999999999997</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D193" t="s">
         <v>245</v>
@@ -7253,42 +7282,42 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>58</v>
+        <v>382</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C194" t="s">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="D194" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E194" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
       </c>
       <c r="G194" s="1">
-        <v>5750</v>
+        <v>1000</v>
       </c>
       <c r="H194">
-        <v>2.1299999999999999E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="I194" s="2">
-        <v>122.47499999999999</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C195" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D195" t="s">
         <v>249</v>
@@ -7300,24 +7329,24 @@
         <v>14</v>
       </c>
       <c r="G195" s="1">
-        <v>8250</v>
+        <v>5750</v>
       </c>
       <c r="H195">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I195" s="2">
-        <v>175.72499999999999</v>
+        <v>122.47499999999999</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="D196" t="s">
         <v>249</v>
@@ -7329,24 +7358,24 @@
         <v>14</v>
       </c>
       <c r="G196" s="1">
-        <v>1500</v>
+        <v>8250</v>
       </c>
       <c r="H196">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I196" s="2">
-        <v>31.95</v>
+        <v>175.72499999999999</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C197" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D197" t="s">
         <v>249</v>
@@ -7358,53 +7387,53 @@
         <v>14</v>
       </c>
       <c r="G197" s="1">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="H197">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I197" s="2">
-        <v>5.3250000000000002</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D198" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E198" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
       </c>
       <c r="G198" s="1">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="H198">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I198" s="2">
-        <v>63.9</v>
+        <v>5.3250000000000002</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C199" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D199" t="s">
         <v>264</v>
@@ -7416,13 +7445,13 @@
         <v>14</v>
       </c>
       <c r="G199" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="H199">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I199" s="2">
-        <v>74.55</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7430,7 +7459,7 @@
         <v>35</v>
       </c>
       <c r="B200" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C200" t="s">
         <v>37</v>
@@ -7445,24 +7474,24 @@
         <v>14</v>
       </c>
       <c r="G200" s="1">
-        <v>9250</v>
+        <v>3500</v>
       </c>
       <c r="H200">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I200" s="2">
-        <v>197.02500000000001</v>
+        <v>74.55</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B201" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D201" t="s">
         <v>264</v>
@@ -7474,24 +7503,24 @@
         <v>14</v>
       </c>
       <c r="G201" s="1">
-        <v>3000</v>
+        <v>9250</v>
       </c>
       <c r="H201">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I201" s="2">
-        <v>63.9</v>
+        <v>197.02500000000001</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C202" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
         <v>264</v>
@@ -7503,24 +7532,24 @@
         <v>14</v>
       </c>
       <c r="G202" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H202">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I202" s="2">
-        <v>21.3</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C203" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D203" t="s">
         <v>264</v>
@@ -7543,71 +7572,71 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>395</v>
+        <v>87</v>
       </c>
       <c r="B204" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D204" t="s">
-        <v>397</v>
+        <v>264</v>
       </c>
       <c r="E204" t="s">
-        <v>398</v>
+        <v>265</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
       </c>
       <c r="G204" s="1">
-        <v>49000</v>
+        <v>1000</v>
       </c>
       <c r="H204">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="I204" s="2">
-        <v>1043.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>70</v>
+        <v>395</v>
       </c>
       <c r="B205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C205" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E205" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
       </c>
       <c r="G205" s="1">
-        <v>1200</v>
+        <v>49000</v>
       </c>
       <c r="H205">
-        <v>3.9100000000000003E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I205" s="2">
-        <v>46.92</v>
+        <v>1043.7</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>401</v>
+        <v>70</v>
       </c>
       <c r="B206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C206" t="s">
-        <v>403</v>
+        <v>72</v>
       </c>
       <c r="D206" t="s">
         <v>400</v>
@@ -7630,42 +7659,42 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>58</v>
+        <v>401</v>
       </c>
       <c r="B207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C207" t="s">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="D207" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="E207" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
       </c>
       <c r="G207" s="1">
-        <v>13500</v>
+        <v>1200</v>
       </c>
       <c r="H207">
-        <v>1.2500000000000001E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I207" s="2">
-        <v>168.75</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B208" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C208" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D208" t="s">
         <v>313</v>
@@ -7688,13 +7717,13 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B209" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C209" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D209" t="s">
         <v>313</v>
@@ -7706,24 +7735,24 @@
         <v>14</v>
       </c>
       <c r="G209" s="1">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="H209">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I209" s="2">
-        <v>131.25</v>
+        <v>168.75</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B210" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D210" t="s">
         <v>313</v>
@@ -7735,24 +7764,24 @@
         <v>14</v>
       </c>
       <c r="G210" s="1">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="H210">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I210" s="2">
-        <v>93.75</v>
+        <v>131.25</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C211" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D211" t="s">
         <v>313</v>
@@ -7764,30 +7793,30 @@
         <v>14</v>
       </c>
       <c r="G211" s="1">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="H211">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I211" s="2">
-        <v>18.75</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B212" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D212" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -7796,21 +7825,21 @@
         <v>1500</v>
       </c>
       <c r="H212">
-        <v>4.41E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="I212" s="2">
-        <v>66.150000000000006</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B213" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C213" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D213" t="s">
         <v>410</v>
@@ -7833,19 +7862,19 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="B214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C214" t="s">
-        <v>415</v>
+        <v>54</v>
       </c>
       <c r="D214" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
@@ -7854,50 +7883,50 @@
         <v>1500</v>
       </c>
       <c r="H214">
-        <v>1.9099999999999999E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="I214" s="2">
-        <v>28.65</v>
+        <v>66.150000000000006</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>413</v>
       </c>
       <c r="B215" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="D215" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
         <v>14</v>
       </c>
       <c r="G215" s="1">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H215">
-        <v>2.2100000000000002E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="I215" s="2">
-        <v>39.78</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D216" t="s">
         <v>419</v>
@@ -7920,42 +7949,42 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B217" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C217" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D217" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E217" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
       </c>
       <c r="G217" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="H217">
-        <v>3.5499999999999997E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="I217" s="2">
-        <v>31.95</v>
+        <v>39.78</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B218" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D218" t="s">
         <v>423</v>
@@ -7967,24 +7996,24 @@
         <v>14</v>
       </c>
       <c r="G218" s="1">
-        <v>7200</v>
+        <v>900</v>
       </c>
       <c r="H218">
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="I218" s="2">
-        <v>255.6</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C219" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D219" t="s">
         <v>423</v>
@@ -7996,53 +8025,53 @@
         <v>14</v>
       </c>
       <c r="G219" s="1">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="H219">
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="I219" s="2">
-        <v>63.9</v>
+        <v>255.6</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B220" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C220" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D220" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="E220" t="s">
-        <v>340</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
       </c>
       <c r="G220" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H220">
-        <v>4.6199999999999998E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="I220" s="2">
-        <v>69.3</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C221" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D221" t="s">
         <v>339</v>
@@ -8065,13 +8094,13 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B222" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C222" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="D222" t="s">
         <v>339</v>
@@ -8094,19 +8123,19 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B223" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C223" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="D223" t="s">
-        <v>431</v>
+        <v>339</v>
       </c>
       <c r="E223" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="F223" t="s">
         <v>14</v>
@@ -8115,13 +8144,44 @@
         <v>1500</v>
       </c>
       <c r="H223">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="I223" s="2">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>138</v>
+      </c>
+      <c r="B224" t="s">
+        <v>430</v>
+      </c>
+      <c r="C224" t="s">
+        <v>140</v>
+      </c>
+      <c r="D224" t="s">
+        <v>431</v>
+      </c>
+      <c r="E224" t="s">
+        <v>432</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H224">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="I223" s="2">
+      <c r="I224" s="2">
         <v>38.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>